--- a/datasets/Brasileirao/match_history/teams/parana.xlsx
+++ b/datasets/Brasileirao/match_history/teams/parana.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,12 +518,20 @@
           <t>team</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>time_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2018-04-16</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>43206</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -574,12 +586,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1327881868950491</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2018-04-22</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>43212</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -634,12 +650,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1335873109913375</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2018-04-29</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>43219</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -694,12 +714,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>2006</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1345257027075204</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2018-05-07</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>43227</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,12 +778,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>1998</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1356062246541897</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2018-05-13</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>43233</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -814,12 +842,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>1992</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1364223078033142</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2018-05-20</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>43240</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -874,12 +906,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>1985</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1373806141169542</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2018-05-27</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>43247</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -934,12 +970,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>1978</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1383456521081736</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2018-05-30</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>43250</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -994,12 +1034,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>1975</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1387613122429552</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2018-06-04</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>43255</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1054,12 +1098,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>1970</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.1394568562150509</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2018-06-07</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>43258</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1114,12 +1162,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>1967</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.1398758549675758</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2018-06-10</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>43261</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1174,12 +1226,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>1964</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.1402961126037396</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2018-06-13</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>43264</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1234,12 +1290,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.1407176329058639</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2018-07-18</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>43299</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1294,12 +1354,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>1926</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.145729954012943</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2018-07-22</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>43303</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1354,12 +1418,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>1922</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1463140412246355</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2018-07-25</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>43306</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1414,12 +1482,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>1919</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1467536424204021</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2018-07-29</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>43310</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1474,12 +1546,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>1915</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.1473418325861619</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2018-08-05</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>43317</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1534,12 +1610,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>1908</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.1483768437269658</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2018-08-12</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>43324</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1594,12 +1674,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>1901</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.1494191253628002</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2018-08-19</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>43331</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1654,12 +1738,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>1894</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.1504687285656736</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2018-08-22</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>43334</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1714,12 +1802,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>1891</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.1509208125382666</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2018-08-25</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>43337</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1774,12 +1866,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>1888</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.1513742547991911</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2018-09-02</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>43345</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1834,12 +1930,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>1880</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.1525901057568839</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2018-09-05</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>43348</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1894,12 +1994,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>1877</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.1530485634168012</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2018-09-09</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>43352</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1954,12 +2058,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>1873</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1536619836931276</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2018-09-15</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>43358</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2014,12 +2122,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>1867</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1545867270511319</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2018-09-23</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>43366</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2074,12 +2186,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>1859</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.1558283808606324</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2018-10-01</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>43374</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2134,12 +2250,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>1851</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.1570800077396975</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2018-10-08</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>43381</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2194,12 +2314,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>1844</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.158183425249542</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2018-10-13</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>43386</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2254,12 +2378,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>1839</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.1589763229682169</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2018-10-21</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>43394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2314,12 +2442,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>1831</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.1602532343874526</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2018-10-27</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>43400</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2374,12 +2506,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>1825</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1612176441297768</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2018-11-04</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>43408</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2434,12 +2570,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>1817</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.1625125580322247</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2018-11-10</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>43414</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2494,12 +2634,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>1811</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1634905644657009</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2018-11-14</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>43418</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2554,12 +2698,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>1807</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1641458363937241</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2018-11-18</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>43422</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2614,12 +2762,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>1803</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1648037346586314</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2018-11-22</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>43426</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2674,12 +2826,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q37" t="n">
+        <v>1799</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1654642697868089</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2018-11-26</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>43430</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2734,12 +2890,16 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q38" t="n">
+        <v>1795</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.1661274523468331</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2018-12-02</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>43436</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2794,6 +2954,12 @@
           <t>parana</t>
         </is>
       </c>
+      <c r="Q39" t="n">
+        <v>1789</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1671272133446262</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
